--- a/DATA_goal/Junction_Flooding_224.xlsx
+++ b/DATA_goal/Junction_Flooding_224.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41656.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>17.87</v>
+        <v>1.79</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>11.85</v>
+        <v>1.19</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>38.03</v>
+        <v>3.8</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>30.15</v>
+        <v>3.01</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>14.06</v>
+        <v>1.41</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>43.85</v>
+        <v>4.39</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>21.64</v>
+        <v>2.16</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>13.39</v>
+        <v>1.34</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.96</v>
+        <v>1.5</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>15.54</v>
+        <v>1.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.49</v>
+        <v>0.45</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.99</v>
+        <v>1.4</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>19.46</v>
+        <v>1.95</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.06</v>
+        <v>1.21</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.41</v>
+        <v>0.34</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>205.52</v>
+        <v>20.55</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>38.85</v>
+        <v>3.89</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>12.91</v>
+        <v>1.29</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>25.44</v>
+        <v>2.54</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.91</v>
+        <v>1.29</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.12</v>
+        <v>0.31</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>22.37</v>
+        <v>2.24</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.4</v>
+        <v>1.14</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>15.49</v>
+        <v>1.55</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.32</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>39.07</v>
+        <v>3.91</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.02</v>
+        <v>0.7</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>16.14</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41656.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.88</v>
+        <v>1.29</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.69</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>27.83</v>
+        <v>2.78</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>22.21</v>
+        <v>2.22</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.13</v>
+        <v>1.01</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>39.72</v>
+        <v>3.97</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>15.59</v>
+        <v>1.56</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.67</v>
+        <v>0.67</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.74</v>
+        <v>0.97</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.12</v>
+        <v>1.11</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.59</v>
+        <v>1.16</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.24</v>
+        <v>0.32</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.08</v>
+        <v>1.01</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.14</v>
+        <v>1.41</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>146.05</v>
+        <v>14.6</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>28.23</v>
+        <v>2.82</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>18.6</v>
+        <v>1.86</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.97</v>
+        <v>0.2</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>19.26</v>
+        <v>1.93</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.49</v>
+        <v>0.75</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.55</v>
+        <v>1.15</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>36.31</v>
+        <v>3.63</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.08</v>
+        <v>0.51</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.63</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41656.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.15</v>
+        <v>1.11</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.91</v>
+        <v>0.79</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.15</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>24.17</v>
+        <v>2.42</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>19.39</v>
+        <v>1.94</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.77</v>
+        <v>0.88</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>34.89</v>
+        <v>3.49</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.5</v>
+        <v>1.35</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.84</v>
+        <v>0.58</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.69</v>
+        <v>0.97</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.14</v>
+        <v>1.01</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.8</v>
+        <v>0.28</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.29</v>
+        <v>1.23</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.56</v>
+        <v>0.76</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>125.44</v>
+        <v>12.54</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>24.42</v>
+        <v>2.44</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16.17</v>
+        <v>1.62</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.58</v>
+        <v>0.16</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>16.73</v>
+        <v>1.67</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.11</v>
+        <v>0.71</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.44</v>
+        <v>0.64</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.55</v>
+        <v>0.75</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.1</v>
+        <v>1.01</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>31.75</v>
+        <v>3.17</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.42</v>
+        <v>0.44</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.07</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41656.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.24</v>
+        <v>1.62</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.85</v>
+        <v>1.19</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>35.28</v>
+        <v>3.53</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>28.7</v>
+        <v>2.87</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.78</v>
+        <v>1.28</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>48.5</v>
+        <v>4.85</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.66</v>
+        <v>1.97</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.67</v>
+        <v>0.87</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.78</v>
+        <v>1.28</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.16</v>
+        <v>1.42</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.9</v>
+        <v>1.49</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.71</v>
+        <v>1.27</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.03</v>
+        <v>1.8</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.8</v>
+        <v>1.08</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>186.09</v>
+        <v>18.61</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>35.51</v>
+        <v>3.55</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.73</v>
+        <v>1.17</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>23.77</v>
+        <v>2.38</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.45</v>
+        <v>1.24</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.99</v>
+        <v>0.2</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>23.66</v>
+        <v>2.37</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.36</v>
+        <v>1.04</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.24</v>
+        <v>0.92</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.85</v>
+        <v>1.09</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.83</v>
+        <v>1.48</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>43.99</v>
+        <v>4.4</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.56</v>
+        <v>0.66</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41656.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>13.93</v>
+        <v>1.39</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>10.19</v>
+        <v>1.02</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>30.28</v>
+        <v>3.03</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>24.64</v>
+        <v>2.46</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>10.96</v>
+        <v>1.1</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>43.47</v>
+        <v>4.35</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>16.87</v>
+        <v>1.69</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>7.45</v>
+        <v>0.75</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>10.98</v>
+        <v>1.1</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>12.15</v>
+        <v>1.22</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>12.8</v>
+        <v>1.28</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>15.49</v>
+        <v>1.55</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>9.26</v>
+        <v>0.93</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>158.64</v>
+        <v>15.86</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>30.52</v>
+        <v>3.05</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>20.44</v>
+        <v>2.04</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>10.7</v>
+        <v>1.07</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.69</v>
+        <v>0.17</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>20.98</v>
+        <v>2.1</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>7.92</v>
+        <v>0.79</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>9.31</v>
+        <v>0.93</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>12.74</v>
+        <v>1.27</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>39.55</v>
+        <v>3.95</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>5.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>12.58</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41656.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>14.32</v>
+        <v>1.43</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>10.53</v>
+        <v>1.05</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>31.12</v>
+        <v>3.11</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>25.39</v>
+        <v>2.54</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>11.27</v>
+        <v>1.13</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>44.09</v>
+        <v>4.41</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>17.34</v>
+        <v>1.73</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>7.68</v>
+        <v>0.77</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>11.34</v>
+        <v>1.13</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>13.17</v>
+        <v>1.32</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.6</v>
+        <v>0.36</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>11.2</v>
+        <v>1.12</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>15.93</v>
+        <v>1.59</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>163.21</v>
+        <v>16.32</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>31.34</v>
+        <v>3.13</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>10.34</v>
+        <v>1.03</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>21.03</v>
+        <v>2.1</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>11.02</v>
+        <v>1.1</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.69</v>
+        <v>0.17</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>21.34</v>
+        <v>2.13</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>13.1</v>
+        <v>1.31</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>40.05</v>
+        <v>4.01</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>5.8</v>
+        <v>0.58</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41656.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>19.7</v>
+        <v>1.97</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>14.6</v>
+        <v>1.46</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>42.84</v>
+        <v>4.28</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>35.12</v>
+        <v>3.51</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>15.5</v>
+        <v>1.55</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>59.36</v>
+        <v>5.94</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>23.85</v>
+        <v>2.39</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>10.63</v>
+        <v>1.06</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>15.75</v>
+        <v>1.57</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>17.19</v>
+        <v>1.72</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>18.15</v>
+        <v>1.82</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.95</v>
+        <v>0.5</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>15.41</v>
+        <v>1.54</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>21.97</v>
+        <v>2.2</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>12.94</v>
+        <v>1.29</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>227.31</v>
+        <v>22.73</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>43.09</v>
+        <v>4.31</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>14.23</v>
+        <v>1.42</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>29.02</v>
+        <v>2.9</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>15.22</v>
+        <v>1.52</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>29</v>
+        <v>2.9</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>11.11</v>
+        <v>1.11</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>13.07</v>
+        <v>1.31</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>18.05</v>
+        <v>1.81</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>53.9</v>
+        <v>5.39</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>17.79</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41656.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>5.28</v>
+        <v>0.53</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>3.8</v>
+        <v>0.38</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>11.49</v>
+        <v>1.15</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>9.23</v>
+        <v>0.92</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>4.16</v>
+        <v>0.42</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>21.62</v>
+        <v>2.16</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>6.4</v>
+        <v>0.64</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>2.85</v>
+        <v>0.28</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>4.07</v>
+        <v>0.41</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>4.61</v>
+        <v>0.46</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>4.85</v>
+        <v>0.48</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.34</v>
+        <v>0.13</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>4.14</v>
+        <v>0.41</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>5.92</v>
+        <v>0.59</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>3.58</v>
+        <v>0.36</v>
       </c>
       <c r="R9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="V9" s="4" t="n">
         <v>0.38</v>
       </c>
-      <c r="S9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>55.67</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>3.82</v>
-      </c>
       <c r="W9" s="4" t="n">
-        <v>7.92</v>
+        <v>0.79</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>4.07</v>
+        <v>0.41</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>3.37</v>
+        <v>0.34</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>4.83</v>
+        <v>0.48</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>20.07</v>
+        <v>2.01</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>2.1</v>
+        <v>0.21</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>4.77</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41656.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>14.32</v>
+        <v>1.43</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>10.61</v>
+        <v>1.06</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>31.14</v>
+        <v>3.11</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>25.5</v>
+        <v>2.55</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>11.27</v>
+        <v>1.13</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>41.51</v>
+        <v>4.15</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>17.34</v>
+        <v>1.73</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>7.71</v>
+        <v>0.77</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>11.43</v>
+        <v>1.14</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>12.5</v>
+        <v>1.25</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>13.2</v>
+        <v>1.32</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.6</v>
+        <v>0.36</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>11.2</v>
+        <v>1.12</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>15.94</v>
+        <v>1.59</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>9.41</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>163.19</v>
+        <v>16.32</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>31.24</v>
+        <v>3.12</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>10.34</v>
+        <v>1.03</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>21.02</v>
+        <v>2.1</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>11.05</v>
+        <v>1.11</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>20.34</v>
+        <v>2.03</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>8.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>9.5</v>
+        <v>0.95</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>13.12</v>
+        <v>1.31</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>37.46</v>
+        <v>3.75</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>5.83</v>
+        <v>0.58</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_224.xlsx
+++ b/DATA_goal/Junction_Flooding_224.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,159 +652,159 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41656.34027777778</v>
+        <v>44905.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.8</v>
+        <v>3.48</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.01</v>
+        <v>2.71</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.39</v>
+        <v>3.92</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.95</v>
+        <v>1.77</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.55</v>
+        <v>18.72</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.89</v>
+        <v>3.55</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.54</v>
+        <v>2.3</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.01</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.14</v>
+        <v>1.04</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.04</v>
+        <v>0.93</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.91</v>
+        <v>3.51</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.7</v>
+        <v>0.63</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41656.34722222222</v>
+        <v>44905.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.78</v>
+        <v>3.02</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.97</v>
+        <v>4.21</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.56</v>
+        <v>1.69</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.97</v>
+        <v>1.06</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0.15</v>
@@ -813,102 +813,102 @@
         <v>0.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>14.6</v>
+        <v>15.86</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.93</v>
+        <v>1.01</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.86</v>
+        <v>2.01</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.63</v>
+        <v>3.86</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41656.35416666666</v>
+        <v>44905.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.42</v>
+        <v>2.29</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.49</v>
+        <v>3.36</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.01</v>
+        <v>0.96</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.1</v>
@@ -917,777 +917,257 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>12.54</v>
+        <v>11.86</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.01</v>
+        <v>0.96</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.17</v>
+        <v>3.07</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41656.36111111111</v>
+        <v>44905.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.62</v>
+        <v>1.06</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.19</v>
+        <v>0.76</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.53</v>
+        <v>2.3</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.87</v>
+        <v>1.84</v>
       </c>
       <c r="G5" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="I5" s="4" t="n">
         <v>1.28</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>1.97</v>
-      </c>
       <c r="J5" s="4" t="n">
-        <v>0.87</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.28</v>
+        <v>0.82</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.42</v>
+        <v>0.92</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.49</v>
+        <v>0.97</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.41</v>
+        <v>0.27</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.27</v>
+        <v>0.83</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.8</v>
+        <v>1.17</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.08</v>
+        <v>0.71</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>18.61</v>
+        <v>11.86</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.55</v>
+        <v>2.31</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.38</v>
+        <v>1.54</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.24</v>
+        <v>0.8</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.37</v>
+        <v>1.57</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.04</v>
+        <v>0.67</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.92</v>
+        <v>0.6</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.09</v>
+        <v>0.71</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.48</v>
+        <v>0.97</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.4</v>
+        <v>2.98</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.42</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.47</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41656.36805555555</v>
+        <v>44905.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.39</v>
+        <v>18.74</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.02</v>
+        <v>13.81</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.09</v>
+        <v>1.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.03</v>
+        <v>40.74</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.46</v>
+        <v>33.23</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.1</v>
+        <v>14.72</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>4.35</v>
+        <v>55.37</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.69</v>
+        <v>22.69</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.75</v>
+        <v>10.06</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.1</v>
+        <v>14.88</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.22</v>
+        <v>16.35</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.28</v>
+        <v>17.24</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.35</v>
+        <v>4.71</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.09</v>
+        <v>14.66</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.55</v>
+        <v>20.85</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.93</v>
+        <v>12.38</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.68</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.73</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>15.86</v>
+        <v>215.85</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.05</v>
+        <v>40.96</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.01</v>
+        <v>13.53</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.04</v>
+        <v>27.51</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.07</v>
+        <v>14.43</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.17</v>
+        <v>2.19</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.1</v>
+        <v>27.18</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.89</v>
+        <v>11.95</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.79</v>
+        <v>10.6</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.93</v>
+        <v>12.47</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.27</v>
+        <v>17.17</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>3.95</v>
+        <v>50.29</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41656.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>16.32</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41656.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>22.73</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41656.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41656.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>16.32</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41656.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>25.73</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>83.09999999999999</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>16.73</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>11.23</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>23.59</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>6.86</v>
+        <v>16.92</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_224.xlsx
+++ b/DATA_goal/Junction_Flooding_224.xlsx
@@ -655,103 +655,103 @@
         <v>44905.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.33</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.88</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.75</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.48</v>
+        <v>34.79</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.71</v>
+        <v>27.08</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.83</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.92</v>
+        <v>39.21</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.98</v>
+        <v>19.78</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.09</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.37</v>
+        <v>13.72</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.29</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.1</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.78</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.15</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.32</v>
+        <v>3.15</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.02</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>18.72</v>
+        <v>187.2</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.55</v>
+        <v>35.47</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.8</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.3</v>
+        <v>23.04</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.67</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.32</v>
+        <v>3.17</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.01</v>
+        <v>20.07</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.42</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.93</v>
+        <v>9.34</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.12</v>
+        <v>11.22</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.44</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.51</v>
+        <v>35.15</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.32</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44905.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.93</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.69</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.02</v>
+        <v>30.16</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.4</v>
+        <v>23.95</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.09</v>
+        <v>10.94</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.21</v>
+        <v>42.12</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.69</v>
+        <v>16.87</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.23</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.59</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.2</v>
+        <v>12.04</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.58</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.31</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>15.86</v>
+        <v>158.64</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.05</v>
+        <v>30.52</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.06</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.01</v>
+        <v>20.11</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.43</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.13</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.06</v>
+        <v>20.56</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.89</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.8</v>
+        <v>8.01</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.48</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.65</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.86</v>
+        <v>38.63</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.49</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44905.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.57</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.49</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.29</v>
+        <v>22.93</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.83</v>
+        <v>18.25</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.36</v>
+        <v>33.57</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.8</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.06</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.18</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.66</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.27</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.16</v>
+        <v>11.64</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>11.86</v>
+        <v>118.57</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.32</v>
+        <v>23.18</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.63</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.53</v>
+        <v>15.31</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.61</v>
+        <v>16.06</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.08</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.17</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.07</v>
+        <v>30.71</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.17</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44905.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.57</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.61</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.3</v>
+        <v>22.96</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.84</v>
+        <v>18.43</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.27</v>
+        <v>32.67</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.8</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.58</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.17</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.67</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.66</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.27</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.68</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.13</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.55</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>11.86</v>
+        <v>118.57</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.31</v>
+        <v>23.14</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.63</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.54</v>
+        <v>15.37</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.8</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.57</v>
+        <v>15.72</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.6</v>
+        <v>6.05</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.12</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.66</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.98</v>
+        <v>29.76</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.21</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_224.xlsx
+++ b/DATA_goal/Junction_Flooding_224.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,58 +655,58 @@
         <v>44905.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>16.33</v>
+        <v>16.334</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>10.88</v>
+        <v>10.878</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.75</v>
+        <v>3.753</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>34.79</v>
+        <v>34.787</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>27.08</v>
+        <v>27.078</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>12.83</v>
+        <v>12.827</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>39.21</v>
+        <v>39.214</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>19.78</v>
+        <v>19.779</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.09</v>
+        <v>8.095000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>12.09</v>
+        <v>12.091</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>13.72</v>
+        <v>13.724</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>14.29</v>
+        <v>14.293</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.1</v>
+        <v>4.102</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12.78</v>
+        <v>12.783</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>17.7</v>
+        <v>17.703</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.15</v>
+        <v>11.145</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.15</v>
+        <v>3.152</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.02</v>
+        <v>2.018</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>187.2</v>
@@ -715,43 +715,43 @@
         <v>35.47</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>11.8</v>
+        <v>11.799</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>23.04</v>
+        <v>23.043</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>11.67</v>
+        <v>11.665</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>3.17</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>20.07</v>
+        <v>20.069</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.42</v>
+        <v>10.422</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.34</v>
+        <v>9.335000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.22</v>
+        <v>11.223</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.44</v>
+        <v>14.442</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.31</v>
+        <v>3.314</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>35.15</v>
+        <v>35.145</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.32</v>
+        <v>6.324</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>14.75</v>
+        <v>14.751</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44905.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.93</v>
+        <v>13.932</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>9.787000000000001</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.69</v>
+        <v>1.694</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>30.16</v>
+        <v>30.162</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>23.95</v>
+        <v>23.953</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.94</v>
+        <v>10.938</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>42.12</v>
+        <v>42.123</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>16.87</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.23</v>
+        <v>7.234</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.59</v>
+        <v>10.593</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.04</v>
+        <v>12.038</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.58</v>
+        <v>12.584</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.5</v>
+        <v>3.503</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.9</v>
+        <v>10.903</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>15.31</v>
+        <v>15.314</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.5</v>
+        <v>9.497999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.46</v>
+        <v>1.464</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.99</v>
+        <v>0.991</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>158.64</v>
+        <v>158.635</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>30.52</v>
+        <v>30.522</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.06</v>
+        <v>10.064</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>20.11</v>
+        <v>20.113</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.43</v>
+        <v>10.425</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.13</v>
+        <v>2.126</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>20.56</v>
+        <v>20.558</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.01</v>
+        <v>8.007</v>
       </c>
       <c r="AC3" s="4" t="n">
         <v>9.48</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.65</v>
+        <v>12.645</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>38.63</v>
+        <v>38.626</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.49</v>
+        <v>5.488</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.58</v>
+        <v>12.582</v>
       </c>
     </row>
     <row r="4">
@@ -863,70 +863,70 @@
         <v>44905.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.57</v>
+        <v>10.569</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.49</v>
+        <v>7.491</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.11</v>
+        <v>1.113</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>22.93</v>
+        <v>22.931</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>18.25</v>
+        <v>18.251</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>8.292</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>33.57</v>
+        <v>33.571</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.8</v>
+        <v>12.798</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.53</v>
+        <v>5.531</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.06</v>
+        <v>8.058999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.18</v>
+        <v>9.183</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>9.611000000000001</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.66</v>
+        <v>2.658</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.27</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.64</v>
+        <v>11.644</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.2</v>
+        <v>7.204</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.97</v>
+        <v>0.967</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.65</v>
+        <v>0.652</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>118.57</v>
+        <v>118.574</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>23.18</v>
+        <v>23.184</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.63</v>
+        <v>7.635</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>15.31</v>
+        <v>15.313</v>
       </c>
       <c r="X4" s="4" t="n">
         <v>7.97</v>
@@ -935,31 +935,31 @@
         <v>1.54</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>16.06</v>
+        <v>16.058</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.74</v>
+        <v>6.744</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.08</v>
+        <v>6.081</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.17</v>
+        <v>7.173</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>9.635999999999999</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>30.71</v>
+        <v>30.713</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.17</v>
+        <v>4.172</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>9.545</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>9.550000000000001</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44905.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.81</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>33.23</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>55.37</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>22.69</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.88</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>17.24</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>14.66</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>20.85</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>215.85</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>40.96</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>27.51</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.43</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>27.18</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>17.17</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>50.29</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.92</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_224.xlsx
+++ b/DATA_goal/Junction_Flooding_224.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44905.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.57</v>
+        <v>10.569</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.61</v>
+        <v>7.605</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.903</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>22.96</v>
+        <v>22.959</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>18.43</v>
+        <v>18.428</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>8.292999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>32.67</v>
+        <v>32.672</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12.8</v>
+        <v>12.798</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.58</v>
+        <v>5.585</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.17</v>
+        <v>8.172000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>9.209</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.67</v>
+        <v>9.669</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.66</v>
+        <v>2.658</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.27</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.68</v>
+        <v>11.682</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.13</v>
+        <v>7.132</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.744</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.548</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>118.57</v>
+        <v>118.566</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>23.14</v>
+        <v>23.141</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.63</v>
+        <v>7.635</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>15.37</v>
+        <v>15.375</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>8.039</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.42</v>
+        <v>1.423</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.72</v>
+        <v>15.721</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.74</v>
+        <v>6.744</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.05</v>
+        <v>6.049</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.12</v>
+        <v>7.123</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.66</v>
+        <v>9.664</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>29.76</v>
+        <v>29.757</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.21</v>
+        <v>4.211</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>9.545</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44905.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>13.81</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>33.23</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>55.37</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>17.24</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>215.85</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>40.96</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>27.51</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>14.43</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>17.17</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>50.29</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>16.92</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_224.xlsx
+++ b/DATA_goal/Junction_Flooding_224.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44905.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.569</v>
+        <v>10.57</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.605</v>
+        <v>7.61</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.903</v>
+        <v>0.9</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>22.959</v>
+        <v>22.96</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>18.428</v>
+        <v>18.43</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.292999999999999</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>32.672</v>
+        <v>32.67</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12.798</v>
+        <v>12.8</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.585</v>
+        <v>5.58</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.172000000000001</v>
+        <v>8.17</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.209</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.669</v>
+        <v>9.67</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.658</v>
+        <v>2.66</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.271000000000001</v>
+        <v>8.27</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.682</v>
+        <v>11.68</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.132</v>
+        <v>7.13</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.744</v>
+        <v>0.74</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.548</v>
+        <v>0.55</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>118.566</v>
+        <v>118.57</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>23.141</v>
+        <v>23.14</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.635</v>
+        <v>7.63</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>15.375</v>
+        <v>15.37</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.039</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.423</v>
+        <v>1.42</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.721</v>
+        <v>15.72</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.744</v>
+        <v>6.74</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.049</v>
+        <v>6.05</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.123</v>
+        <v>7.12</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.664</v>
+        <v>9.66</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>29.757</v>
+        <v>29.76</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.211</v>
+        <v>4.21</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.545</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44905.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.81</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>33.23</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>55.37</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>22.69</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.88</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>17.24</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>14.66</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>20.85</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>215.85</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>40.96</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>27.51</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.43</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>27.18</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>17.17</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>50.29</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.92</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
   </sheetData>
